--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dee\Documents\UiPath\Assignment2\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0E5762-19B9-434E-BD8B-156CAC09E971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81791118-0A63-4BBC-A0BD-08996C477576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6000" yWindow="2460" windowWidth="21600" windowHeight="11385" xr2:uid="{8C1CCB8F-3277-48F1-A5A1-724DDF5AEC3B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="169">
   <si>
     <t>Audi Audi S5 4.2 Tiptronic +Keyless+B&amp;O+Kamera+...</t>
   </si>
@@ -573,6 +573,9 @@
   </si>
   <si>
     <t>Smart fortwo electric drive design Paket*Winter-Paket</t>
+  </si>
+  <si>
+    <t>Smart Prime electric Komfort/LichtSicht/Winterpaket</t>
   </si>
 </sst>
 </file>
@@ -927,7 +930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F596E5E1-D40B-4C12-A213-38F630400F8F}">
-  <dimension ref="A1:C228"/>
+  <dimension ref="A1:C455"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3441,6 +3444,2503 @@
         <v>13290</v>
       </c>
     </row>
+    <row r="229" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B229">
+        <v>2019</v>
+      </c>
+      <c r="C229">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B230">
+        <v>2019</v>
+      </c>
+      <c r="C230">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B231">
+        <v>2019</v>
+      </c>
+      <c r="C231">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B232">
+        <v>2018</v>
+      </c>
+      <c r="C232">
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B233">
+        <v>2018</v>
+      </c>
+      <c r="C233">
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B234">
+        <v>2020</v>
+      </c>
+      <c r="C234">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235">
+        <v>2017</v>
+      </c>
+      <c r="C235">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B236">
+        <v>2019</v>
+      </c>
+      <c r="C236">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B237">
+        <v>2019</v>
+      </c>
+      <c r="C237">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B238">
+        <v>2018</v>
+      </c>
+      <c r="C238">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B239">
+        <v>2017</v>
+      </c>
+      <c r="C239">
+        <v>13979</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B240">
+        <v>2020</v>
+      </c>
+      <c r="C240">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B241">
+        <v>2019</v>
+      </c>
+      <c r="C241">
+        <v>11390</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B242">
+        <v>2018</v>
+      </c>
+      <c r="C242">
+        <v>12390</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B243">
+        <v>2018</v>
+      </c>
+      <c r="C243">
+        <v>12390</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B244">
+        <v>2017</v>
+      </c>
+      <c r="C244">
+        <v>13980</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B245">
+        <v>2019</v>
+      </c>
+      <c r="C245">
+        <v>12950</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B246">
+        <v>2020</v>
+      </c>
+      <c r="C246">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B247">
+        <v>2020</v>
+      </c>
+      <c r="C247">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B248">
+        <v>2019</v>
+      </c>
+      <c r="C248">
+        <v>12980</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B249">
+        <v>2018</v>
+      </c>
+      <c r="C249">
+        <v>11749</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B250">
+        <v>2017</v>
+      </c>
+      <c r="C250">
+        <v>13950</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B251">
+        <v>2020</v>
+      </c>
+      <c r="C251">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B252">
+        <v>2020</v>
+      </c>
+      <c r="C252">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B253">
+        <v>2020</v>
+      </c>
+      <c r="C253">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B254">
+        <v>2018</v>
+      </c>
+      <c r="C254">
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B255">
+        <v>2017</v>
+      </c>
+      <c r="C255">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B256">
+        <v>2015</v>
+      </c>
+      <c r="C256">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B257">
+        <v>2019</v>
+      </c>
+      <c r="C257">
+        <v>13999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B258">
+        <v>2020</v>
+      </c>
+      <c r="C258">
+        <v>14590</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B259">
+        <v>2020</v>
+      </c>
+      <c r="C259">
+        <v>14590</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B260">
+        <v>2019</v>
+      </c>
+      <c r="C260">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B261">
+        <v>2018</v>
+      </c>
+      <c r="C261">
+        <v>14750</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B262">
+        <v>2018</v>
+      </c>
+      <c r="C262">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B263">
+        <v>2017</v>
+      </c>
+      <c r="C263">
+        <v>13490</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B264">
+        <v>2020</v>
+      </c>
+      <c r="C264">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B265">
+        <v>2020</v>
+      </c>
+      <c r="C265">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B266">
+        <v>2017</v>
+      </c>
+      <c r="C266">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B267">
+        <v>2018</v>
+      </c>
+      <c r="C267">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B268">
+        <v>2020</v>
+      </c>
+      <c r="C268">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B269">
+        <v>2020</v>
+      </c>
+      <c r="C269">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B270">
+        <v>2020</v>
+      </c>
+      <c r="C270">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B271">
+        <v>2017</v>
+      </c>
+      <c r="C271">
+        <v>12390</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B272">
+        <v>2020</v>
+      </c>
+      <c r="C272">
+        <v>14849</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B273">
+        <v>2020</v>
+      </c>
+      <c r="C273">
+        <v>14849</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B274">
+        <v>2019</v>
+      </c>
+      <c r="C274">
+        <v>12510</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>37</v>
+      </c>
+      <c r="B275">
+        <v>2018</v>
+      </c>
+      <c r="C275">
+        <v>14950</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>38</v>
+      </c>
+      <c r="B276">
+        <v>2019</v>
+      </c>
+      <c r="C276">
+        <v>12510</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>39</v>
+      </c>
+      <c r="B277">
+        <v>2017</v>
+      </c>
+      <c r="C277">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>40</v>
+      </c>
+      <c r="B278">
+        <v>2018</v>
+      </c>
+      <c r="C278">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>41</v>
+      </c>
+      <c r="B279">
+        <v>2020</v>
+      </c>
+      <c r="C279">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>42</v>
+      </c>
+      <c r="B280">
+        <v>2019</v>
+      </c>
+      <c r="C280">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>43</v>
+      </c>
+      <c r="B281">
+        <v>2018</v>
+      </c>
+      <c r="C281">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>44</v>
+      </c>
+      <c r="B282">
+        <v>2020</v>
+      </c>
+      <c r="C282">
+        <v>14555</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>45</v>
+      </c>
+      <c r="B283">
+        <v>2020</v>
+      </c>
+      <c r="C283">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>46</v>
+      </c>
+      <c r="B284">
+        <v>2018</v>
+      </c>
+      <c r="C284">
+        <v>12799</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>47</v>
+      </c>
+      <c r="B285">
+        <v>2018</v>
+      </c>
+      <c r="C285">
+        <v>11980</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>48</v>
+      </c>
+      <c r="B286">
+        <v>2016</v>
+      </c>
+      <c r="C286">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>49</v>
+      </c>
+      <c r="B287">
+        <v>2017</v>
+      </c>
+      <c r="C287">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>50</v>
+      </c>
+      <c r="B288">
+        <v>2017</v>
+      </c>
+      <c r="C288">
+        <v>11855</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>51</v>
+      </c>
+      <c r="B289">
+        <v>2019</v>
+      </c>
+      <c r="C289">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>52</v>
+      </c>
+      <c r="B290">
+        <v>2018</v>
+      </c>
+      <c r="C290">
+        <v>12888</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>53</v>
+      </c>
+      <c r="B291">
+        <v>2017</v>
+      </c>
+      <c r="C291">
+        <v>12890</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>54</v>
+      </c>
+      <c r="B292">
+        <v>2018</v>
+      </c>
+      <c r="C292">
+        <v>13888</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>55</v>
+      </c>
+      <c r="B293">
+        <v>2015</v>
+      </c>
+      <c r="C293">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>45</v>
+      </c>
+      <c r="B294">
+        <v>2020</v>
+      </c>
+      <c r="C294">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>56</v>
+      </c>
+      <c r="B295">
+        <v>2019</v>
+      </c>
+      <c r="C295">
+        <v>12390</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>56</v>
+      </c>
+      <c r="B296">
+        <v>2019</v>
+      </c>
+      <c r="C296">
+        <v>12450</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>57</v>
+      </c>
+      <c r="B297">
+        <v>2018</v>
+      </c>
+      <c r="C297">
+        <v>11950</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>45</v>
+      </c>
+      <c r="B298">
+        <v>2020</v>
+      </c>
+      <c r="C298">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>45</v>
+      </c>
+      <c r="B299">
+        <v>2020</v>
+      </c>
+      <c r="C299">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>58</v>
+      </c>
+      <c r="B300">
+        <v>2020</v>
+      </c>
+      <c r="C300">
+        <v>14290</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>58</v>
+      </c>
+      <c r="B301">
+        <v>2020</v>
+      </c>
+      <c r="C301">
+        <v>14290</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>59</v>
+      </c>
+      <c r="B302">
+        <v>2019</v>
+      </c>
+      <c r="C302">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>60</v>
+      </c>
+      <c r="B303">
+        <v>2018</v>
+      </c>
+      <c r="C303">
+        <v>12550</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>61</v>
+      </c>
+      <c r="B304">
+        <v>2017</v>
+      </c>
+      <c r="C304">
+        <v>11890</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>62</v>
+      </c>
+      <c r="B305">
+        <v>2018</v>
+      </c>
+      <c r="C305">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>63</v>
+      </c>
+      <c r="B306">
+        <v>2018</v>
+      </c>
+      <c r="C306">
+        <v>13880</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>64</v>
+      </c>
+      <c r="B307">
+        <v>2019</v>
+      </c>
+      <c r="C307">
+        <v>13599</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>168</v>
+      </c>
+      <c r="B308">
+        <v>2018</v>
+      </c>
+      <c r="C308">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>65</v>
+      </c>
+      <c r="B309">
+        <v>2018</v>
+      </c>
+      <c r="C309">
+        <v>13790</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>66</v>
+      </c>
+      <c r="B310">
+        <v>2017</v>
+      </c>
+      <c r="C310">
+        <v>12650</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>67</v>
+      </c>
+      <c r="B311">
+        <v>2018</v>
+      </c>
+      <c r="C311">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>68</v>
+      </c>
+      <c r="B312">
+        <v>2018</v>
+      </c>
+      <c r="C312">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>69</v>
+      </c>
+      <c r="B313">
+        <v>2019</v>
+      </c>
+      <c r="C313">
+        <v>14480</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>70</v>
+      </c>
+      <c r="B314">
+        <v>2019</v>
+      </c>
+      <c r="C314">
+        <v>11650</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>71</v>
+      </c>
+      <c r="B315">
+        <v>2020</v>
+      </c>
+      <c r="C315">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>71</v>
+      </c>
+      <c r="B316">
+        <v>2020</v>
+      </c>
+      <c r="C316">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>71</v>
+      </c>
+      <c r="B317">
+        <v>2020</v>
+      </c>
+      <c r="C317">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>71</v>
+      </c>
+      <c r="B318">
+        <v>2020</v>
+      </c>
+      <c r="C318">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>71</v>
+      </c>
+      <c r="B319">
+        <v>2020</v>
+      </c>
+      <c r="C319">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>71</v>
+      </c>
+      <c r="B320">
+        <v>2020</v>
+      </c>
+      <c r="C320">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>71</v>
+      </c>
+      <c r="B321">
+        <v>2020</v>
+      </c>
+      <c r="C321">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>72</v>
+      </c>
+      <c r="B322">
+        <v>2020</v>
+      </c>
+      <c r="C322">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>72</v>
+      </c>
+      <c r="B323">
+        <v>2020</v>
+      </c>
+      <c r="C323">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>45</v>
+      </c>
+      <c r="B324">
+        <v>2020</v>
+      </c>
+      <c r="C324">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>45</v>
+      </c>
+      <c r="B325">
+        <v>2020</v>
+      </c>
+      <c r="C325">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>45</v>
+      </c>
+      <c r="B326">
+        <v>2020</v>
+      </c>
+      <c r="C326">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>73</v>
+      </c>
+      <c r="B327">
+        <v>2019</v>
+      </c>
+      <c r="C327">
+        <v>13999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>74</v>
+      </c>
+      <c r="B328">
+        <v>2019</v>
+      </c>
+      <c r="C328">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>74</v>
+      </c>
+      <c r="B329">
+        <v>2019</v>
+      </c>
+      <c r="C329">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>75</v>
+      </c>
+      <c r="B330">
+        <v>2017</v>
+      </c>
+      <c r="C330">
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>76</v>
+      </c>
+      <c r="B331">
+        <v>2021</v>
+      </c>
+      <c r="C331">
+        <v>14999</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>71</v>
+      </c>
+      <c r="B332">
+        <v>2020</v>
+      </c>
+      <c r="C332">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>51</v>
+      </c>
+      <c r="B333">
+        <v>2019</v>
+      </c>
+      <c r="C333">
+        <v>13690</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>77</v>
+      </c>
+      <c r="B334">
+        <v>2019</v>
+      </c>
+      <c r="C334">
+        <v>12879</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>77</v>
+      </c>
+      <c r="B335">
+        <v>2019</v>
+      </c>
+      <c r="C335">
+        <v>12879</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>77</v>
+      </c>
+      <c r="B336">
+        <v>2019</v>
+      </c>
+      <c r="C336">
+        <v>13389</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>77</v>
+      </c>
+      <c r="B337">
+        <v>2019</v>
+      </c>
+      <c r="C337">
+        <v>13389</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>78</v>
+      </c>
+      <c r="B338">
+        <v>2020</v>
+      </c>
+      <c r="C338">
+        <v>14040</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>79</v>
+      </c>
+      <c r="B339">
+        <v>2018</v>
+      </c>
+      <c r="C339">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>80</v>
+      </c>
+      <c r="B340">
+        <v>2018</v>
+      </c>
+      <c r="C340">
+        <v>14444</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>59</v>
+      </c>
+      <c r="B341">
+        <v>2018</v>
+      </c>
+      <c r="C341">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>81</v>
+      </c>
+      <c r="B342">
+        <v>2018</v>
+      </c>
+      <c r="C342">
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>82</v>
+      </c>
+      <c r="B343">
+        <v>2017</v>
+      </c>
+      <c r="C343">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>83</v>
+      </c>
+      <c r="B344">
+        <v>2018</v>
+      </c>
+      <c r="C344">
+        <v>11980</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>84</v>
+      </c>
+      <c r="B345">
+        <v>2019</v>
+      </c>
+      <c r="C345">
+        <v>14466</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>85</v>
+      </c>
+      <c r="B346">
+        <v>2019</v>
+      </c>
+      <c r="C346">
+        <v>13490</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>85</v>
+      </c>
+      <c r="B347">
+        <v>2019</v>
+      </c>
+      <c r="C347">
+        <v>13490</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>86</v>
+      </c>
+      <c r="B348">
+        <v>2019</v>
+      </c>
+      <c r="C348">
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>87</v>
+      </c>
+      <c r="B349">
+        <v>2020</v>
+      </c>
+      <c r="C349">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>88</v>
+      </c>
+      <c r="B350">
+        <v>2018</v>
+      </c>
+      <c r="C350">
+        <v>12790</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>89</v>
+      </c>
+      <c r="B351">
+        <v>2019</v>
+      </c>
+      <c r="C351">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>71</v>
+      </c>
+      <c r="B352">
+        <v>2020</v>
+      </c>
+      <c r="C352">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>90</v>
+      </c>
+      <c r="B353">
+        <v>2018</v>
+      </c>
+      <c r="C353">
+        <v>13666</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>91</v>
+      </c>
+      <c r="B354">
+        <v>2018</v>
+      </c>
+      <c r="C354">
+        <v>13890</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>92</v>
+      </c>
+      <c r="B355">
+        <v>2018</v>
+      </c>
+      <c r="C355">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>93</v>
+      </c>
+      <c r="B356">
+        <v>2021</v>
+      </c>
+      <c r="C356">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>94</v>
+      </c>
+      <c r="B357">
+        <v>2018</v>
+      </c>
+      <c r="C357">
+        <v>14795</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>42</v>
+      </c>
+      <c r="B358">
+        <v>2018</v>
+      </c>
+      <c r="C358">
+        <v>12880</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>95</v>
+      </c>
+      <c r="B359">
+        <v>2019</v>
+      </c>
+      <c r="C359">
+        <v>14880</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>96</v>
+      </c>
+      <c r="B360">
+        <v>2018</v>
+      </c>
+      <c r="C360">
+        <v>13790</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>97</v>
+      </c>
+      <c r="B361">
+        <v>2020</v>
+      </c>
+      <c r="C361">
+        <v>13999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>98</v>
+      </c>
+      <c r="B362">
+        <v>2018</v>
+      </c>
+      <c r="C362">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>99</v>
+      </c>
+      <c r="B363">
+        <v>2017</v>
+      </c>
+      <c r="C363">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>100</v>
+      </c>
+      <c r="B364">
+        <v>2019</v>
+      </c>
+      <c r="C364">
+        <v>14799</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>101</v>
+      </c>
+      <c r="B365">
+        <v>2020</v>
+      </c>
+      <c r="C365">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>102</v>
+      </c>
+      <c r="B366">
+        <v>2017</v>
+      </c>
+      <c r="C366">
+        <v>13333</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>103</v>
+      </c>
+      <c r="B367">
+        <v>2018</v>
+      </c>
+      <c r="C367">
+        <v>11790</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>104</v>
+      </c>
+      <c r="B368">
+        <v>2019</v>
+      </c>
+      <c r="C368">
+        <v>13982</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>105</v>
+      </c>
+      <c r="B369">
+        <v>2018</v>
+      </c>
+      <c r="C369">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>106</v>
+      </c>
+      <c r="B370">
+        <v>2018</v>
+      </c>
+      <c r="C370">
+        <v>12189</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>42</v>
+      </c>
+      <c r="B371">
+        <v>2018</v>
+      </c>
+      <c r="C371">
+        <v>11999</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>107</v>
+      </c>
+      <c r="B372">
+        <v>2017</v>
+      </c>
+      <c r="C372">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>108</v>
+      </c>
+      <c r="B373">
+        <v>2018</v>
+      </c>
+      <c r="C373">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>109</v>
+      </c>
+      <c r="B374">
+        <v>2018</v>
+      </c>
+      <c r="C374">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>110</v>
+      </c>
+      <c r="B375">
+        <v>2018</v>
+      </c>
+      <c r="C375">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>110</v>
+      </c>
+      <c r="B376">
+        <v>2018</v>
+      </c>
+      <c r="C376">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>111</v>
+      </c>
+      <c r="B377">
+        <v>2018</v>
+      </c>
+      <c r="C377">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>112</v>
+      </c>
+      <c r="B378">
+        <v>2018</v>
+      </c>
+      <c r="C378">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>113</v>
+      </c>
+      <c r="B379">
+        <v>2017</v>
+      </c>
+      <c r="C379">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>114</v>
+      </c>
+      <c r="B380">
+        <v>2018</v>
+      </c>
+      <c r="C380">
+        <v>13250</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>97</v>
+      </c>
+      <c r="B381">
+        <v>2019</v>
+      </c>
+      <c r="C381">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>51</v>
+      </c>
+      <c r="B382">
+        <v>2019</v>
+      </c>
+      <c r="C382">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>115</v>
+      </c>
+      <c r="B383">
+        <v>2017</v>
+      </c>
+      <c r="C383">
+        <v>14290</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>116</v>
+      </c>
+      <c r="B384">
+        <v>2019</v>
+      </c>
+      <c r="C384">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>117</v>
+      </c>
+      <c r="B385">
+        <v>2017</v>
+      </c>
+      <c r="C385">
+        <v>13390</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>118</v>
+      </c>
+      <c r="B386">
+        <v>2019</v>
+      </c>
+      <c r="C386">
+        <v>12950</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>119</v>
+      </c>
+      <c r="B387">
+        <v>2017</v>
+      </c>
+      <c r="C387">
+        <v>12690</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>120</v>
+      </c>
+      <c r="B388">
+        <v>2018</v>
+      </c>
+      <c r="C388">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>116</v>
+      </c>
+      <c r="B389">
+        <v>2019</v>
+      </c>
+      <c r="C389">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>121</v>
+      </c>
+      <c r="B390">
+        <v>2019</v>
+      </c>
+      <c r="C390">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>42</v>
+      </c>
+      <c r="B391">
+        <v>2019</v>
+      </c>
+      <c r="C391">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>122</v>
+      </c>
+      <c r="B392">
+        <v>2017</v>
+      </c>
+      <c r="C392">
+        <v>12790</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>123</v>
+      </c>
+      <c r="B393">
+        <v>2018</v>
+      </c>
+      <c r="C393">
+        <v>11720</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>124</v>
+      </c>
+      <c r="B394">
+        <v>2017</v>
+      </c>
+      <c r="C394">
+        <v>13333</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>125</v>
+      </c>
+      <c r="B395">
+        <v>2013</v>
+      </c>
+      <c r="C395">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>126</v>
+      </c>
+      <c r="B396">
+        <v>2018</v>
+      </c>
+      <c r="C396">
+        <v>12690</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>127</v>
+      </c>
+      <c r="B397">
+        <v>2018</v>
+      </c>
+      <c r="C397">
+        <v>13250</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>128</v>
+      </c>
+      <c r="B398">
+        <v>2018</v>
+      </c>
+      <c r="C398">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>128</v>
+      </c>
+      <c r="B399">
+        <v>2018</v>
+      </c>
+      <c r="C399">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>129</v>
+      </c>
+      <c r="B400">
+        <v>2018</v>
+      </c>
+      <c r="C400">
+        <v>12879</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>129</v>
+      </c>
+      <c r="B401">
+        <v>2018</v>
+      </c>
+      <c r="C401">
+        <v>12879</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>56</v>
+      </c>
+      <c r="B402">
+        <v>2019</v>
+      </c>
+      <c r="C402">
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>56</v>
+      </c>
+      <c r="B403">
+        <v>2019</v>
+      </c>
+      <c r="C403">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>130</v>
+      </c>
+      <c r="B404">
+        <v>2018</v>
+      </c>
+      <c r="C404">
+        <v>12260</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>131</v>
+      </c>
+      <c r="B405">
+        <v>2018</v>
+      </c>
+      <c r="C405">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>132</v>
+      </c>
+      <c r="B406">
+        <v>2019</v>
+      </c>
+      <c r="C406">
+        <v>13930</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>133</v>
+      </c>
+      <c r="B407">
+        <v>2017</v>
+      </c>
+      <c r="C407">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>134</v>
+      </c>
+      <c r="B408">
+        <v>2018</v>
+      </c>
+      <c r="C408">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>135</v>
+      </c>
+      <c r="B409">
+        <v>2020</v>
+      </c>
+      <c r="C409">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>134</v>
+      </c>
+      <c r="B410">
+        <v>2018</v>
+      </c>
+      <c r="C410">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>134</v>
+      </c>
+      <c r="B411">
+        <v>2018</v>
+      </c>
+      <c r="C411">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>136</v>
+      </c>
+      <c r="B412">
+        <v>2018</v>
+      </c>
+      <c r="C412">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>137</v>
+      </c>
+      <c r="B413">
+        <v>2017</v>
+      </c>
+      <c r="C413">
+        <v>12790</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>138</v>
+      </c>
+      <c r="B414">
+        <v>2014</v>
+      </c>
+      <c r="C414">
+        <v>13479</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>139</v>
+      </c>
+      <c r="B415">
+        <v>2018</v>
+      </c>
+      <c r="C415">
+        <v>12195</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>140</v>
+      </c>
+      <c r="B416">
+        <v>2018</v>
+      </c>
+      <c r="C416">
+        <v>10490</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>141</v>
+      </c>
+      <c r="B417">
+        <v>2019</v>
+      </c>
+      <c r="C417">
+        <v>14979</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>42</v>
+      </c>
+      <c r="B418">
+        <v>2018</v>
+      </c>
+      <c r="C418">
+        <v>11290</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>142</v>
+      </c>
+      <c r="B419">
+        <v>2018</v>
+      </c>
+      <c r="C419">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>143</v>
+      </c>
+      <c r="B420">
+        <v>2017</v>
+      </c>
+      <c r="C420">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>144</v>
+      </c>
+      <c r="B421">
+        <v>2018</v>
+      </c>
+      <c r="C421">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>144</v>
+      </c>
+      <c r="B422">
+        <v>2018</v>
+      </c>
+      <c r="C422">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>145</v>
+      </c>
+      <c r="B423">
+        <v>2019</v>
+      </c>
+      <c r="C423">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>146</v>
+      </c>
+      <c r="B424">
+        <v>2019</v>
+      </c>
+      <c r="C424">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>147</v>
+      </c>
+      <c r="B425">
+        <v>2018</v>
+      </c>
+      <c r="C425">
+        <v>12099</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>148</v>
+      </c>
+      <c r="B426">
+        <v>2018</v>
+      </c>
+      <c r="C426">
+        <v>13290</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>149</v>
+      </c>
+      <c r="B427">
+        <v>2018</v>
+      </c>
+      <c r="C427">
+        <v>12499</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>150</v>
+      </c>
+      <c r="B428">
+        <v>2020</v>
+      </c>
+      <c r="C428">
+        <v>14945</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>141</v>
+      </c>
+      <c r="B429">
+        <v>2019</v>
+      </c>
+      <c r="C429">
+        <v>14979</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>151</v>
+      </c>
+      <c r="B430">
+        <v>2018</v>
+      </c>
+      <c r="C430">
+        <v>12966</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>152</v>
+      </c>
+      <c r="B431">
+        <v>2019</v>
+      </c>
+      <c r="C431">
+        <v>12820</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>131</v>
+      </c>
+      <c r="B432">
+        <v>2018</v>
+      </c>
+      <c r="C432">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>131</v>
+      </c>
+      <c r="B433">
+        <v>2018</v>
+      </c>
+      <c r="C433">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>131</v>
+      </c>
+      <c r="B434">
+        <v>2018</v>
+      </c>
+      <c r="C434">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>153</v>
+      </c>
+      <c r="B435">
+        <v>2014</v>
+      </c>
+      <c r="C435">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>154</v>
+      </c>
+      <c r="B436">
+        <v>2017</v>
+      </c>
+      <c r="C436">
+        <v>12950</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>155</v>
+      </c>
+      <c r="B437">
+        <v>2014</v>
+      </c>
+      <c r="C437">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>156</v>
+      </c>
+      <c r="B438">
+        <v>2018</v>
+      </c>
+      <c r="C438">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>156</v>
+      </c>
+      <c r="B439">
+        <v>2018</v>
+      </c>
+      <c r="C439">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>157</v>
+      </c>
+      <c r="B440">
+        <v>2017</v>
+      </c>
+      <c r="C440">
+        <v>13980</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>126</v>
+      </c>
+      <c r="B441">
+        <v>2017</v>
+      </c>
+      <c r="C441">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>158</v>
+      </c>
+      <c r="B442">
+        <v>2018</v>
+      </c>
+      <c r="C442">
+        <v>12985</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>158</v>
+      </c>
+      <c r="B443">
+        <v>2018</v>
+      </c>
+      <c r="C443">
+        <v>12985</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>159</v>
+      </c>
+      <c r="B444">
+        <v>2017</v>
+      </c>
+      <c r="C444">
+        <v>14995</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>160</v>
+      </c>
+      <c r="B445">
+        <v>2018</v>
+      </c>
+      <c r="C445">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>161</v>
+      </c>
+      <c r="B446">
+        <v>2017</v>
+      </c>
+      <c r="C446">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>161</v>
+      </c>
+      <c r="B447">
+        <v>2017</v>
+      </c>
+      <c r="C447">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>162</v>
+      </c>
+      <c r="B448">
+        <v>2018</v>
+      </c>
+      <c r="C448">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>162</v>
+      </c>
+      <c r="B449">
+        <v>2018</v>
+      </c>
+      <c r="C449">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>163</v>
+      </c>
+      <c r="B450">
+        <v>2017</v>
+      </c>
+      <c r="C450">
+        <v>11450</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>164</v>
+      </c>
+      <c r="B451">
+        <v>2017</v>
+      </c>
+      <c r="C451">
+        <v>14290</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>165</v>
+      </c>
+      <c r="B452">
+        <v>2018</v>
+      </c>
+      <c r="C452">
+        <v>11999</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>166</v>
+      </c>
+      <c r="B453">
+        <v>2014</v>
+      </c>
+      <c r="C453">
+        <v>13490</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>167</v>
+      </c>
+      <c r="B454">
+        <v>2017</v>
+      </c>
+      <c r="C454">
+        <v>13290</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>167</v>
+      </c>
+      <c r="B455">
+        <v>2017</v>
+      </c>
+      <c r="C455">
+        <v>13290</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
